--- a/CountryData/Kazakhstan/Kazakhstan_Workbook.xlsx
+++ b/CountryData/Kazakhstan/Kazakhstan_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Kazakhstan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{90B13CB6-1B27-4786-A9F5-08CAABA2FB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{90B13CB6-1B27-4786-A9F5-08CAABA2FB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA66873-595D-4A49-BF22-28517253E0ED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kazakhstan_Popup" sheetId="1" r:id="rId1"/>
@@ -98,32 +98,6 @@
   </si>
   <si>
     <t>Supplier Development Project in Kazakhstan (SDPK), World Bank (Ongoing)</t>
-  </si>
-  <si>
-    <r>
-      <t>Columbia Center on Sustainable Investment (2020) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content: Kazakstan – Mining &amp; Petroleum</t>
-    </r>
   </si>
   <si>
     <r>
@@ -176,15 +150,48 @@
   <si>
     <t>—2021 Conference Summary and Recording</t>
   </si>
+  <si>
+    <r>
+      <t>Columbia Center on Sustainable Investment (2020) –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Content: Kazakstan – Mining &amp; Petroleum</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,12 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -422,14 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -788,105 +781,98 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
@@ -908,10 +894,12 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1268,11 +1256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F30"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1273,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1295,290 +1283,325 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <v>51</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>26</v>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=KZ"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=KZ"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=KZ"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/kazakhstan"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/115/export-basket"/>
-    <hyperlink ref="A13" r:id="rId7" display="http://adilet.zan.kz/eng/docs/K1700000125"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://adilet.zan.kz/eng/docs/Z1100000463"/>
-    <hyperlink ref="A21" r:id="rId9" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content-Kazakhstan-Mining-and-Petroleum-CCSI-Jan-2020.pdf"/>
-    <hyperlink ref="A22" r:id="rId10" display="https://www.iisd.org/sites/default/files/publications/case-study-kazakhstan-upstream-linkages.pdf"/>
-    <hyperlink ref="A23" r:id="rId11" display="https://www.oecd.org/dev/How-to-upgrade-technological-services-for-the-upstream-oil-value-chain.pdf"/>
-    <hyperlink ref="A24" r:id="rId12" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=2870517"/>
-    <hyperlink ref="A28" r:id="rId13" display="https://sdpk.kz/en/"/>
-    <hyperlink ref="A29" r:id="rId14" display="https://qazindustry.gov.kz/en/article/1817-kak-malym-i-srednim-predpriyatiyam-kazakhstana-stat-maksimalno-konkurentosposobnymi-eksperty-obsudili-na-spetsialnoy-konferentsii"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=KZ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=KZ" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=KZ" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/kazakhstan" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/115/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" display="http://adilet.zan.kz/eng/docs/K1700000125" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" display="https://adilet.zan.kz/eng/docs/Z1100000463" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A21" r:id="rId9" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content-Kazakhstan-Mining-and-Petroleum-CCSI-Jan-2020.pdf" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A22" r:id="rId10" display="https://www.iisd.org/sites/default/files/publications/case-study-kazakhstan-upstream-linkages.pdf" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A23" r:id="rId11" display="https://www.oecd.org/dev/How-to-upgrade-technological-services-for-the-upstream-oil-value-chain.pdf" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A24" r:id="rId12" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=2870517" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A28" r:id="rId13" display="https://sdpk.kz/en/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A29" r:id="rId14" display="https://qazindustry.gov.kz/en/article/1817-kak-malym-i-srednim-predpriyatiyam-kazakhstana-stat-maksimalno-konkurentosposobnymi-eksperty-obsudili-na-spetsialnoy-konferentsii" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>

--- a/CountryData/Kazakhstan/Kazakhstan_Workbook.xlsx
+++ b/CountryData/Kazakhstan/Kazakhstan_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Kazakhstan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{90B13CB6-1B27-4786-A9F5-08CAABA2FB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA66873-595D-4A49-BF22-28517253E0ED}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:40009_{90B13CB6-1B27-4786-A9F5-08CAABA2FB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED50BB5-0A08-4257-979F-9A400E053FE1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,67 +91,22 @@
     <t>Analysis and Case Studies</t>
   </si>
   <si>
-    <t>Kalyuzhnova et al. (2016) – Local Content Policies in Resource-Rich Countries (Paywall)</t>
-  </si>
-  <si>
     <t>Relevant Initiatives</t>
   </si>
   <si>
     <t>Supplier Development Project in Kazakhstan (SDPK), World Bank (Ongoing)</t>
   </si>
   <si>
-    <r>
-      <t>IGF (2018) – </t>
-    </r>
+    <t>—2021 Conference Summary and Recording</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>IGF Local Content Guidance Case Study Kazakhstan: Downstream Linkages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Organisation for Economic Co-operation and Development (2018) - </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>How to Upgrade Technological Services for the Upstream Oil Value Chain in Kazakhstan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">De Haas and Poelhekke (2016) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mining Matters: Natural Resource Extraction and Local Business Constraints. De Nederlandsche Bank Working Paper No. 533</t>
-    </r>
-  </si>
-  <si>
-    <t>—2021 Conference Summary and Recording</t>
-  </si>
-  <si>
-    <r>
       <t>Columbia Center on Sustainable Investment (2020) –</t>
     </r>
     <r>
@@ -176,12 +131,131 @@
       <t>Local Content: Kazakstan – Mining &amp; Petroleum</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IGF (2018) –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IGF Local Content Guidance Case Study Kazakhstan: Downstream Linkages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Organisation for Economic Co-operation and Development (2018) - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How to Upgrade Technological Services for the Upstream Oil Value Chain in Kazakhstan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De Haas and Poelhekke (2016) –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mining Matters: Natural Resource Extraction and Local Business Constraints. De Nederlandsche Bank Working Paper No. 533</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Kalyuzhnova et al. (2016) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Local Content Policies in Resource-Rich Countries </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -425,6 +499,35 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -825,7 +928,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -851,9 +954,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -868,12 +968,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,8 +992,24 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1257,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1269,21 +1379,24 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
@@ -1291,11 +1404,11 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3"/>
@@ -1303,11 +1416,11 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
@@ -1315,11 +1428,11 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>51</v>
       </c>
       <c r="C6" s="3"/>
@@ -1327,11 +1440,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6"/>
@@ -1339,252 +1452,253 @@
       <c r="E7" s="6"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3"/>
+      <c r="A28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="19"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3"/>
+      <c r="A29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1594,19 +1708,21 @@
     <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/kazakhstan" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/115/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A13" r:id="rId7" display="http://adilet.zan.kz/eng/docs/K1700000125" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://adilet.zan.kz/eng/docs/Z1100000463" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="A21" r:id="rId9" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/extractive industries/Local-Content-Kazakhstan-Mining-and-Petroleum-CCSI-Jan-2020.pdf" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="A22" r:id="rId10" display="https://www.iisd.org/sites/default/files/publications/case-study-kazakhstan-upstream-linkages.pdf" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="A23" r:id="rId11" display="https://www.oecd.org/dev/How-to-upgrade-technological-services-for-the-upstream-oil-value-chain.pdf" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="A24" r:id="rId12" display="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=2870517" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="A28" r:id="rId13" display="https://sdpk.kz/en/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="A29" r:id="rId14" display="https://qazindustry.gov.kz/en/article/1817-kak-malym-i-srednim-predpriyatiyam-kazakhstana-stat-maksimalno-konkurentosposobnymi-eksperty-obsudili-na-spetsialnoy-konferentsii" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A25" r:id="rId15" xr:uid="{B33EBE2B-2ED5-4746-BAAC-88830261A7FE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
-  <webPublishItems count="1">
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
+  <webPublishItems count="2">
     <webPublishItem id="742" divId="Kazakhstan_Workbook_742" sourceType="range" sourceRef="A1:F30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Kazakhstan\Kazakhstan_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="4005" divId="Kazakhstan_Workbook_4005" sourceType="range" sourceRef="A1:G30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Kazakhstan\Kazakhstan_Popup.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Kazakhstan/Kazakhstan_Workbook.xlsx
+++ b/CountryData/Kazakhstan/Kazakhstan_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Kazakhstan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:40009_{90B13CB6-1B27-4786-A9F5-08CAABA2FB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED50BB5-0A08-4257-979F-9A400E053FE1}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:40009_{90B13CB6-1B27-4786-A9F5-08CAABA2FB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45D103FC-35A8-4F9E-8AAB-C19CC54405A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kazakhstan_Popup" sheetId="1" r:id="rId1"/>
@@ -188,6 +188,39 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Kalyuzhnova et al. (2016) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Local Content Policies in Resource-Rich Countries </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -216,33 +249,19 @@
       </rPr>
       <t>Mining Matters: Natural Resource Extraction and Local Business Constraints. De Nederlandsche Bank Working Paper No. 533</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Kalyuzhnova et al. (2016) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Local Content Policies in Resource-Rich Countries </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1370,13 +1389,14 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G30"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.625" customWidth="1"/>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,7 +1472,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1619,7 +1639,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -1632,7 +1652,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="19"/>
@@ -1720,9 +1740,8 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
-  <webPublishItems count="2">
-    <webPublishItem id="742" divId="Kazakhstan_Workbook_742" sourceType="range" sourceRef="A1:F30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Kazakhstan\Kazakhstan_Popup.htm" autoRepublish="1"/>
-    <webPublishItem id="4005" divId="Kazakhstan_Workbook_4005" sourceType="range" sourceRef="A1:G30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Kazakhstan\Kazakhstan_Popup.htm"/>
+  <webPublishItems count="1">
+    <webPublishItem id="20186" divId="Kazakhstan_Workbook_20186" sourceType="range" sourceRef="A1:F30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Kazakhstan\Kazakhstan_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>